--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-211_概念データモデル定義(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-211_概念データモデル定義(サンプル＆ガイド).xlsx
@@ -505,16 +505,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,6 +514,9 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1007,51 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,51 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3551,9 +3544,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="13"/>
       <c r="J31" s="17"/>
-      <c r="R31" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="13"/>
@@ -3593,20 +3584,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4081,7 +4076,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4189,219 +4184,219 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="26" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="33" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="29" t="s">
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="29"/>
-      <c r="AD15" s="29"/>
-      <c r="AE15" s="29"/>
-      <c r="AF15" s="29"/>
-      <c r="AG15" s="29"/>
-      <c r="AH15" s="29"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="37" t="s">
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="30" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="50"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="32"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="46"/>
+      <c r="AH16" s="47"/>
     </row>
     <row r="17" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <f>B16+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="40" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="40" t="s">
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="42"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="28"/>
     </row>
     <row r="18" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <f t="shared" ref="B18:B19" si="0">B17+1</f>
         <v>3</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="40" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="54"/>
-      <c r="AB18" s="49" t="s">
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="39"/>
+      <c r="Y18" s="39"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="50"/>
-      <c r="AD18" s="50"/>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="51"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="37"/>
     </row>
     <row r="19" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="40" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="46"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="45"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="30"/>
+      <c r="AD19" s="30"/>
+      <c r="AE19" s="30"/>
+      <c r="AF19" s="30"/>
+      <c r="AG19" s="30"/>
+      <c r="AH19" s="31"/>
     </row>
     <row r="20" spans="1:34" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:34" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4423,6 +4418,14 @@
     <row r="33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="I15:U15"/>
+    <mergeCell ref="I16:U16"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="AB19:AH19"/>
     <mergeCell ref="V19:AA19"/>
@@ -4435,14 +4438,6 @@
     <mergeCell ref="V18:AA18"/>
     <mergeCell ref="I17:U17"/>
     <mergeCell ref="I18:U18"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="I15:U15"/>
-    <mergeCell ref="I16:U16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-211_概念データモデル定義(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-211_概念データモデル定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E6303F-4A1E-4956-9D15-C97E33CC7AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="10575" windowHeight="5685"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -504,25 +515,11 @@
     <t>2018年08月29日</t>
     <phoneticPr fontId="11"/>
   </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1007,6 +1004,48 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,48 +1090,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1173,6 +1170,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1194,7 +1194,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1292,52 +1298,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1358,7 +1318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1445,7 +1411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1531,7 +1503,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1608,7 +1586,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1667,7 +1651,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -1712,7 +1702,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1776,7 +1772,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1858,7 +1860,13 @@
     <xdr:ext cx="1107996" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1935,7 +1943,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2022,7 +2036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2067,7 +2087,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2144,7 +2170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2227,7 +2259,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="23" idx="1"/>
@@ -2272,7 +2310,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2336,7 +2380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2423,7 +2473,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2468,7 +2524,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2532,7 +2594,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="カギ線コネクタ 40"/>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2582,7 +2650,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2664,7 +2738,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="テキスト ボックス 27"/>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2741,7 +2821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2823,7 +2909,13 @@
     <xdr:ext cx="1415772" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2900,7 +2992,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2950,7 +3048,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="31" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3000,7 +3104,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3050,7 +3160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3088,7 +3204,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3131,7 +3253,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3164,7 +3292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3206,7 +3334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3239,9 +3367,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3274,6 +3419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3449,7 +3611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3558,58 +3720,47 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="23"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="22"/>
       <c r="S37" s="24"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="23"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="22"/>
       <c r="S38" s="23"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>30</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="25"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
-      <c r="R39" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="R39" s="23"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4072,17 +4223,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4184,219 +4332,219 @@
       <c r="B15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="41" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="48" t="s">
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="44" t="s">
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
     </row>
     <row r="16" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="52" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="53"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="50"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="45" t="s">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AC16" s="46"/>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="46"/>
-      <c r="AG16" s="46"/>
-      <c r="AH16" s="47"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="32"/>
     </row>
     <row r="17" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7">
         <f>B16+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="26" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="26" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="28"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="42"/>
     </row>
     <row r="18" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7">
         <f t="shared" ref="B18:B19" si="0">B17+1</f>
         <v>3</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="26" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="35" t="s">
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="52"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="37"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="51"/>
     </row>
     <row r="19" spans="1:34" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="26" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="31"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="45"/>
     </row>
     <row r="20" spans="1:34" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="1:34" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4418,14 +4566,6 @@
     <row r="33" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="AB15:AH15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="AB16:AH16"/>
-    <mergeCell ref="V15:AA15"/>
-    <mergeCell ref="V16:AA16"/>
-    <mergeCell ref="I15:U15"/>
-    <mergeCell ref="I16:U16"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="AB19:AH19"/>
     <mergeCell ref="V19:AA19"/>
@@ -4438,6 +4578,14 @@
     <mergeCell ref="V18:AA18"/>
     <mergeCell ref="I17:U17"/>
     <mergeCell ref="I18:U18"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="AB15:AH15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="AB16:AH16"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="I15:U15"/>
+    <mergeCell ref="I16:U16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4454,7 +4602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
